--- a/graph_expr/output/goodcol_outputs- Email_lb20_lb20_cyc_m_q7/Email_lb20_lb20_cyc_m_q7__simgrBYVIEWS_newcols_rmvEmpty.xlsx
+++ b/graph_expr/output/goodcol_outputs- Email_lb20_lb20_cyc_m_q7/Email_lb20_lb20_cyc_m_q7__simgrBYVIEWS_newcols_rmvEmpty.xlsx
@@ -185,7 +185,7 @@
     <t xml:space="preserve">2 VIEWS, no overlap</t>
   </si>
   <si>
-    <t xml:space="preserve">rmvEmpty</t>
+    <t xml:space="preserve">rmvEmpty sim</t>
   </si>
   <si>
     <t xml:space="preserve">IESIM</t>
@@ -224,13 +224,12 @@
     <numFmt numFmtId="165" formatCode="General"/>
     <numFmt numFmtId="166" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -246,6 +245,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -276,6 +282,19 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -326,12 +345,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -339,35 +354,47 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -394,7 +421,7 @@
       <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.06640625" defaultRowHeight="13.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.08203125" defaultRowHeight="13.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -818,7 +845,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.01171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -968,35 +995,35 @@
         <v>22996</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4" t="n">
+      <c r="C5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E5" s="8" t="n">
         <v>0.02</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="F5" s="7" t="n">
+      <c r="F5" s="9" t="n">
         <v>0.04</v>
       </c>
-      <c r="G5" s="4" t="n">
-        <v>53443</v>
-      </c>
-      <c r="H5" s="4" t="n">
+      <c r="G5" s="8" t="n">
+        <v>53443</v>
+      </c>
+      <c r="H5" s="8" t="n">
         <v>684</v>
       </c>
-      <c r="I5" s="4" t="n">
-        <v>50083</v>
-      </c>
-      <c r="J5" s="4" t="n">
+      <c r="I5" s="8" t="n">
+        <v>50083</v>
+      </c>
+      <c r="J5" s="8" t="n">
         <v>23679</v>
       </c>
       <c r="K5" s="6" t="n">
@@ -1018,7 +1045,7 @@
       <c r="E6" s="2" t="n">
         <v>0.02</v>
       </c>
-      <c r="F6" s="8" t="n">
+      <c r="F6" s="10" t="n">
         <v>2.6</v>
       </c>
       <c r="G6" s="2" t="n">
@@ -1052,7 +1079,7 @@
       <c r="E7" s="2" t="n">
         <v>0.11</v>
       </c>
-      <c r="F7" s="8" t="n">
+      <c r="F7" s="10" t="n">
         <v>2.17</v>
       </c>
       <c r="G7" s="2" t="n">
@@ -1086,7 +1113,7 @@
       <c r="E8" s="2" t="n">
         <v>0.02</v>
       </c>
-      <c r="F8" s="8" t="n">
+      <c r="F8" s="10" t="n">
         <v>0.67</v>
       </c>
       <c r="G8" s="2" t="n">
@@ -1179,19 +1206,19 @@
       <c r="E12" s="6" t="n">
         <v>0.02</v>
       </c>
-      <c r="F12" s="9" t="n">
+      <c r="F12" s="11" t="n">
         <v>2.23</v>
       </c>
-      <c r="G12" s="10" t="n">
+      <c r="G12" s="12" t="n">
         <v>53443</v>
       </c>
       <c r="H12" s="6" t="n">
         <v>685</v>
       </c>
-      <c r="I12" s="10" t="n">
-        <v>50083</v>
-      </c>
-      <c r="J12" s="10" t="n">
+      <c r="I12" s="12" t="n">
+        <v>50083</v>
+      </c>
+      <c r="J12" s="12" t="n">
         <v>23681</v>
       </c>
       <c r="K12" s="6" t="n">
@@ -1215,19 +1242,19 @@
       <c r="E13" s="6" t="n">
         <v>0.05</v>
       </c>
-      <c r="F13" s="9" t="n">
+      <c r="F13" s="11" t="n">
         <v>1.64</v>
       </c>
-      <c r="G13" s="10" t="n">
-        <v>53443</v>
-      </c>
-      <c r="H13" s="10" t="n">
+      <c r="G13" s="12" t="n">
+        <v>53443</v>
+      </c>
+      <c r="H13" s="12" t="n">
         <v>10342</v>
       </c>
-      <c r="I13" s="10" t="n">
-        <v>50083</v>
-      </c>
-      <c r="J13" s="10" t="n">
+      <c r="I13" s="12" t="n">
+        <v>50083</v>
+      </c>
+      <c r="J13" s="12" t="n">
         <v>1517827</v>
       </c>
       <c r="K13" s="6" t="n">
@@ -1251,19 +1278,19 @@
       <c r="E14" s="6" t="n">
         <v>0.01</v>
       </c>
-      <c r="F14" s="9" t="n">
+      <c r="F14" s="11" t="n">
         <v>0.57</v>
       </c>
-      <c r="G14" s="10" t="n">
+      <c r="G14" s="12" t="n">
         <v>53443</v>
       </c>
       <c r="H14" s="6" t="n">
         <v>685</v>
       </c>
-      <c r="I14" s="10" t="n">
-        <v>50083</v>
-      </c>
-      <c r="J14" s="10" t="n">
+      <c r="I14" s="12" t="n">
+        <v>50083</v>
+      </c>
+      <c r="J14" s="12" t="n">
         <v>23681</v>
       </c>
       <c r="K14" s="6" t="n">
